--- a/Android/ETHDemo/ETH_web3_infura_etherscan.io_API.xlsx
+++ b/Android/ETHDemo/ETH_web3_infura_etherscan.io_API.xlsx
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="59">
   <si>
     <t>Description</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -317,10 +317,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Web3j:</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>1. 创建钱包元数据</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -425,6 +421,50 @@
     <t>Infura暂时没有提供根据address获取交易列表信息，
 所以这里直接通过[Etherscan.io](https://etherscan.io/apis#accounts)去获取交易列表
 http://api.etherscan.io/api?module=account&amp;action=txlist&amp;address=0xddbd2b932c763ba5b1b7ae3b362eac3e8d40121a&amp;startblock=0&amp;endblock=99999999&amp;sort=asc&amp;apikey=YourApiKeyToken</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>6. push交易</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">
+transactionReceipt.getTransactionHash() 获取此次交易的hash</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> 7. 获取交易状态</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>web3j.ethGetTransactionByHash(transactionHash).send();</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>返回：EthTransaction 对象</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Annotation</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>address：地址 (base64)格式
+id：
+version：
+crypto：
+cipher：
+ciphertext：
+cipherparams：
+kdf：
+kdfparams：
+mac：</t>
+    <rPh sb="8" eb="9">
+      <t>di zhi</t>
+    </rPh>
+    <rPh sb="19" eb="20">
+      <t>ge shi</t>
+    </rPh>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -456,11 +496,153 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>6. push交易</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Transfer.sendFunds(web3j, credentials, addressTo, amount, Convert.Unit.ETHER).send()
+    <t xml:space="preserve">blockNumber：區塊高度
+timeStamp：時間戳
+hash：交易哈希值
+nonce：随机数 &amp; {位置}:
+blockHash：區塊的hash值
+transactionIndex：
+from：發送方的帳戶地址
+to：接收方的帳戶地址
+value：交易金額
+gas：燃料限制==gasLimit
+gasPrice：當前燃料的價格（默認Gwei為單位1E-9）
+isError：
+txreceipt_status：數據狀態
+input：數據輸入（base64格式）
+contractAddress：合約地址
+cumulativeGasUsed：累積交易燃料費用
+gasUsed：交易燃料费用
+confirmations：區塊確認數
+</t>
+    <rPh sb="12" eb="13">
+      <t>qu kuai</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>gao du</t>
+    </rPh>
+    <rPh sb="27" eb="28">
+      <t>shi jian chuo</t>
+    </rPh>
+    <rPh sb="70" eb="71">
+      <t>qu kuai</t>
+    </rPh>
+    <rPh sb="72" eb="73">
+      <t>de</t>
+    </rPh>
+    <rPh sb="77" eb="78">
+      <t>zhi</t>
+    </rPh>
+    <rPh sb="102" eb="103">
+      <t>fa song</t>
+    </rPh>
+    <rPh sb="104" eb="105">
+      <t>fang</t>
+    </rPh>
+    <rPh sb="105" eb="106">
+      <t>de</t>
+    </rPh>
+    <rPh sb="106" eb="107">
+      <t>zhang hu</t>
+    </rPh>
+    <rPh sb="108" eb="109">
+      <t>di zhi</t>
+    </rPh>
+    <rPh sb="114" eb="115">
+      <t>jei shou</t>
+    </rPh>
+    <rPh sb="116" eb="117">
+      <t>fang</t>
+    </rPh>
+    <rPh sb="117" eb="118">
+      <t>de</t>
+    </rPh>
+    <rPh sb="118" eb="119">
+      <t>zhag hu</t>
+    </rPh>
+    <rPh sb="120" eb="121">
+      <t>di zhi</t>
+    </rPh>
+    <rPh sb="129" eb="130">
+      <t>jiao yi</t>
+    </rPh>
+    <rPh sb="131" eb="132">
+      <t>jin e</t>
+    </rPh>
+    <rPh sb="138" eb="139">
+      <t>ran liao</t>
+    </rPh>
+    <rPh sb="140" eb="141">
+      <t>xian zhi</t>
+    </rPh>
+    <rPh sb="162" eb="163">
+      <t>dang qian</t>
+    </rPh>
+    <rPh sb="164" eb="165">
+      <t>ran l</t>
+    </rPh>
+    <rPh sb="166" eb="167">
+      <t>de</t>
+    </rPh>
+    <rPh sb="167" eb="168">
+      <t>jia ge</t>
+    </rPh>
+    <rPh sb="170" eb="171">
+      <t>mo ren</t>
+    </rPh>
+    <rPh sb="176" eb="177">
+      <t>wei</t>
+    </rPh>
+    <rPh sb="177" eb="178">
+      <t>dan wei</t>
+    </rPh>
+    <rPh sb="211" eb="212">
+      <t>shu ju</t>
+    </rPh>
+    <rPh sb="213" eb="214">
+      <t>zhuzng tai</t>
+    </rPh>
+    <rPh sb="222" eb="223">
+      <t>shu ju</t>
+    </rPh>
+    <rPh sb="224" eb="225">
+      <t>shu ru</t>
+    </rPh>
+    <rPh sb="233" eb="234">
+      <t>ge sh</t>
+    </rPh>
+    <rPh sb="253" eb="254">
+      <t>he yue</t>
+    </rPh>
+    <rPh sb="255" eb="256">
+      <t>di zhi</t>
+    </rPh>
+    <rPh sb="276" eb="277">
+      <t>lei ji</t>
+    </rPh>
+    <rPh sb="278" eb="279">
+      <t>jiao yi</t>
+    </rPh>
+    <rPh sb="280" eb="281">
+      <t>ran liao</t>
+    </rPh>
+    <rPh sb="282" eb="283">
+      <t>fei yong</t>
+    </rPh>
+    <rPh sb="314" eb="315">
+      <t>qu kuai</t>
+    </rPh>
+    <rPh sb="316" eb="317">
+      <t>que ren shu</t>
+    </rPh>
+    <rPh sb="318" eb="319">
+      <t>shu</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1. method Fir:
+Transfer.sendFunds(web3j, credentials, addressTo, amount, Convert.Unit.ETHER).send()
 2. method Sec:
 TransactionManager transactionManager = new RawTransactionManager(web3j, credentials);
         Transfer transfer = new Transfer(web3j, transactionManager);
@@ -468,20 +650,109 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve">
-transactionReceipt.getTransactionHash() 获取此次交易的hash</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve"> 7. 获取交易状态</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>web3j.ethGetTransactionByHash(transactionHash).send();</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>返回：EthTransaction 对象</t>
+    <r>
+      <t>1.Web3j:</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="22"/>
+        <color theme="8" tint="-0.249977111117893"/>
+        <rFont val="DengXian (正文)"/>
+        <charset val="134"/>
+      </rPr>
+      <t>https://web3j.readthedocs.io/en/latest/getting_started.html</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="22"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="DengXian (正文)"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">
+2. Infura:稍后需要用于提供token：</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="22"/>
+        <color theme="8" tint="-0.249977111117893"/>
+        <rFont val="DengXian (正文)"/>
+        <charset val="134"/>
+      </rPr>
+      <t>https://infura.io/dashboard</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="22"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="DengXian (正文)"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">
+3. Using Infura with Web3j:</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="22"/>
+        <color theme="8" tint="-0.249977111117893"/>
+        <rFont val="DengXian (正文)"/>
+        <charset val="134"/>
+      </rPr>
+      <t>https://web3j.readthedocs.io/en/latest/infura.htm</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="22"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="DengXian (正文)"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">
+4. Testnet Ethereum:</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="22"/>
+        <color theme="8" tint="-0.249977111117893"/>
+        <rFont val="DengXian (正文)"/>
+        <charset val="134"/>
+      </rPr>
+      <t>https://www.rinkeby.io/#faucet</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="DengXian (正文)"/>
+        <charset val="134"/>
+      </rPr>
+      <t>知识点</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="DengXian"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+GasPrice:燃料价格。当前ETH坊 gas 的价格，可以直接通过API动态获取。默认单位是GWEI.
+GasLimit:燃料限制。表示gas的个数，表示当前address愿意消耗Gas的最大个数。ETH坊最低是21000，所以，我们设置此参数应该&gt;=21000.
+GasUsed:实际消耗的Gas 个数。应该&lt;=GasLimit.所以如果用户给定的GasLimit=当前ETH的最小限定值（21000），那么就会100%的用上。
+GasFee:实际支付的矿工费GasPrice * GasUsed;</t>
+    </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -489,7 +760,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="14" x14ac:knownFonts="1">
+  <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -563,15 +834,6 @@
     </font>
     <font>
       <b/>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="DengXian"/>
-      <family val="2"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="22"/>
       <color rgb="FFFF0000"/>
       <name val="DengXian (正文)"/>
@@ -591,6 +853,41 @@
       <color theme="1" tint="4.9989318521683403E-2"/>
       <name val="华文楷体"/>
       <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="16"/>
+      <color theme="1"/>
+      <name val="华文楷体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="华文楷体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="22"/>
+      <color theme="8" tint="-0.249977111117893"/>
+      <name val="DengXian (正文)"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="DengXian"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="16"/>
+      <color rgb="FFFF0000"/>
+      <name val="DengXian (正文)"/>
       <charset val="134"/>
     </font>
   </fonts>
@@ -626,7 +923,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -649,11 +946,82 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="37">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -683,35 +1051,83 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1242,39 +1658,54 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:S9"/>
+  <dimension ref="A1:T10"/>
   <sheetViews>
-    <sheetView tabSelected="1" showRuler="0" topLeftCell="A7" zoomScale="99" workbookViewId="0">
-      <selection activeCell="H11" sqref="H11"/>
+    <sheetView tabSelected="1" showRuler="0" topLeftCell="D1" zoomScale="99" workbookViewId="0">
+      <selection activeCell="T1" sqref="T1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="44" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="10.5" customWidth="1"/>
+    <col min="18" max="18" width="7.6640625" customWidth="1"/>
+    <col min="19" max="19" width="10.83203125" hidden="1" customWidth="1"/>
+    <col min="20" max="20" width="54.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" ht="44" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="11" t="s">
-        <v>31</v>
-      </c>
-      <c r="B1" s="12"/>
-      <c r="C1" s="12"/>
-      <c r="D1" s="12"/>
-      <c r="E1" s="12"/>
-      <c r="F1" s="12"/>
-      <c r="G1" s="12"/>
-      <c r="H1" s="12"/>
-      <c r="I1" s="12"/>
-      <c r="J1" s="12"/>
-    </row>
-    <row r="2" spans="1:19" ht="29" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:20" ht="267" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="35" t="s">
+        <v>57</v>
+      </c>
+      <c r="B1" s="14"/>
+      <c r="C1" s="14"/>
+      <c r="D1" s="14"/>
+      <c r="E1" s="14"/>
+      <c r="F1" s="14"/>
+      <c r="G1" s="14"/>
+      <c r="H1" s="14"/>
+      <c r="I1" s="14"/>
+      <c r="J1" s="14"/>
+      <c r="K1" s="14"/>
+      <c r="L1" s="14"/>
+      <c r="M1" s="14"/>
+      <c r="N1" s="14"/>
+      <c r="O1" s="14"/>
+      <c r="P1" s="14"/>
+      <c r="Q1" s="14"/>
+      <c r="R1" s="14"/>
+      <c r="S1" s="14"/>
+      <c r="T1" s="36" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="2" spans="1:20" ht="29" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="13" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B2" s="13"/>
       <c r="C2" s="13"/>
       <c r="D2" s="13" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E2" s="13"/>
       <c r="F2" s="13"/>
@@ -1293,42 +1724,48 @@
       <c r="Q2" s="13"/>
       <c r="R2" s="13"/>
       <c r="S2" s="13"/>
-    </row>
-    <row r="3" spans="1:19" ht="315" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="14" t="s">
+      <c r="T2" s="15" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="3" spans="1:20" ht="315" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="B3" s="12"/>
+      <c r="C3" s="12"/>
+      <c r="D3" s="16" t="s">
         <v>32</v>
       </c>
-      <c r="B3" s="14"/>
-      <c r="C3" s="14"/>
-      <c r="D3" s="16" t="s">
-        <v>33</v>
-      </c>
-      <c r="E3" s="15"/>
-      <c r="F3" s="15"/>
-      <c r="G3" s="15"/>
-      <c r="H3" s="15"/>
-      <c r="I3" s="15"/>
-      <c r="J3" s="15"/>
-      <c r="K3" s="15"/>
-      <c r="L3" s="15"/>
+      <c r="E3" s="17"/>
+      <c r="F3" s="17"/>
+      <c r="G3" s="17"/>
+      <c r="H3" s="17"/>
+      <c r="I3" s="17"/>
+      <c r="J3" s="17"/>
+      <c r="K3" s="17"/>
+      <c r="L3" s="17"/>
       <c r="M3" s="16" t="s">
+        <v>35</v>
+      </c>
+      <c r="N3" s="17"/>
+      <c r="O3" s="17"/>
+      <c r="P3" s="17"/>
+      <c r="Q3" s="17"/>
+      <c r="R3" s="17"/>
+      <c r="S3" s="17"/>
+      <c r="T3" s="34" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20" ht="250" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="11" t="s">
         <v>36</v>
       </c>
-      <c r="N3" s="15"/>
-      <c r="O3" s="15"/>
-      <c r="P3" s="15"/>
-      <c r="Q3" s="15"/>
-      <c r="R3" s="15"/>
-      <c r="S3" s="15"/>
-    </row>
-    <row r="4" spans="1:19" ht="250" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="17" t="s">
+      <c r="B4" s="11"/>
+      <c r="C4" s="11"/>
+      <c r="D4" s="18" t="s">
         <v>37</v>
-      </c>
-      <c r="B4" s="17"/>
-      <c r="C4" s="17"/>
-      <c r="D4" s="18" t="s">
-        <v>38</v>
       </c>
       <c r="E4" s="19"/>
       <c r="F4" s="19"/>
@@ -1339,7 +1776,7 @@
       <c r="K4" s="19"/>
       <c r="L4" s="19"/>
       <c r="M4" s="18" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="N4" s="19"/>
       <c r="O4" s="19"/>
@@ -1348,41 +1785,41 @@
       <c r="R4" s="19"/>
       <c r="S4" s="19"/>
     </row>
-    <row r="5" spans="1:19" ht="160" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="14" t="s">
+    <row r="5" spans="1:20" ht="160" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="12" t="s">
+        <v>39</v>
+      </c>
+      <c r="B5" s="12"/>
+      <c r="C5" s="12"/>
+      <c r="D5" s="17" t="s">
         <v>40</v>
       </c>
-      <c r="B5" s="14"/>
-      <c r="C5" s="14"/>
-      <c r="D5" s="15" t="s">
+      <c r="E5" s="17"/>
+      <c r="F5" s="17"/>
+      <c r="G5" s="17"/>
+      <c r="H5" s="17"/>
+      <c r="I5" s="17"/>
+      <c r="J5" s="17"/>
+      <c r="K5" s="17"/>
+      <c r="L5" s="17"/>
+      <c r="M5" s="16" t="s">
         <v>41</v>
       </c>
-      <c r="E5" s="15"/>
-      <c r="F5" s="15"/>
-      <c r="G5" s="15"/>
-      <c r="H5" s="15"/>
-      <c r="I5" s="15"/>
-      <c r="J5" s="15"/>
-      <c r="K5" s="15"/>
-      <c r="L5" s="15"/>
-      <c r="M5" s="16" t="s">
+      <c r="N5" s="17"/>
+      <c r="O5" s="17"/>
+      <c r="P5" s="17"/>
+      <c r="Q5" s="17"/>
+      <c r="R5" s="17"/>
+      <c r="S5" s="17"/>
+    </row>
+    <row r="6" spans="1:20" ht="242" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="11" t="s">
         <v>42</v>
       </c>
-      <c r="N5" s="15"/>
-      <c r="O5" s="15"/>
-      <c r="P5" s="15"/>
-      <c r="Q5" s="15"/>
-      <c r="R5" s="15"/>
-      <c r="S5" s="15"/>
-    </row>
-    <row r="6" spans="1:19" ht="108" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="17" t="s">
+      <c r="B6" s="11"/>
+      <c r="C6" s="11"/>
+      <c r="D6" s="18" t="s">
         <v>43</v>
-      </c>
-      <c r="B6" s="17"/>
-      <c r="C6" s="17"/>
-      <c r="D6" s="18" t="s">
-        <v>44</v>
       </c>
       <c r="E6" s="19"/>
       <c r="F6" s="19"/>
@@ -1393,7 +1830,7 @@
       <c r="K6" s="19"/>
       <c r="L6" s="19"/>
       <c r="M6" s="18" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="N6" s="19"/>
       <c r="O6" s="19"/>
@@ -1402,114 +1839,140 @@
       <c r="R6" s="19"/>
       <c r="S6" s="19"/>
     </row>
-    <row r="7" spans="1:19" ht="409" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:20" ht="242" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="20" t="s">
+        <v>45</v>
+      </c>
+      <c r="B7" s="21"/>
+      <c r="C7" s="22"/>
+      <c r="D7" s="26" t="s">
         <v>46</v>
       </c>
-      <c r="B7" s="20"/>
-      <c r="C7" s="20"/>
-      <c r="D7" s="16" t="s">
+      <c r="E7" s="27"/>
+      <c r="F7" s="27"/>
+      <c r="G7" s="27"/>
+      <c r="H7" s="27"/>
+      <c r="I7" s="27"/>
+      <c r="J7" s="27"/>
+      <c r="K7" s="27"/>
+      <c r="L7" s="28"/>
+      <c r="M7" s="26" t="s">
+        <v>54</v>
+      </c>
+      <c r="N7" s="27"/>
+      <c r="O7" s="27"/>
+      <c r="P7" s="27"/>
+      <c r="Q7" s="27"/>
+      <c r="R7" s="27"/>
+      <c r="S7" s="28"/>
+      <c r="T7" s="32" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20" ht="409" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="23"/>
+      <c r="B8" s="24"/>
+      <c r="C8" s="25"/>
+      <c r="D8" s="29"/>
+      <c r="E8" s="30"/>
+      <c r="F8" s="30"/>
+      <c r="G8" s="30"/>
+      <c r="H8" s="30"/>
+      <c r="I8" s="30"/>
+      <c r="J8" s="30"/>
+      <c r="K8" s="30"/>
+      <c r="L8" s="31"/>
+      <c r="M8" s="29"/>
+      <c r="N8" s="30"/>
+      <c r="O8" s="30"/>
+      <c r="P8" s="30"/>
+      <c r="Q8" s="30"/>
+      <c r="R8" s="30"/>
+      <c r="S8" s="31"/>
+      <c r="T8" s="33"/>
+    </row>
+    <row r="9" spans="1:20" ht="409" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="11" t="s">
         <v>47</v>
       </c>
-      <c r="E7" s="15"/>
-      <c r="F7" s="15"/>
-      <c r="G7" s="15"/>
-      <c r="H7" s="15"/>
-      <c r="I7" s="15"/>
-      <c r="J7" s="15"/>
-      <c r="K7" s="15"/>
-      <c r="L7" s="15"/>
-      <c r="M7" s="16" t="s">
+      <c r="B9" s="11"/>
+      <c r="C9" s="11"/>
+      <c r="D9" s="18" t="s">
+        <v>56</v>
+      </c>
+      <c r="E9" s="19"/>
+      <c r="F9" s="19"/>
+      <c r="G9" s="19"/>
+      <c r="H9" s="19"/>
+      <c r="I9" s="19"/>
+      <c r="J9" s="19"/>
+      <c r="K9" s="19"/>
+      <c r="L9" s="19"/>
+      <c r="M9" s="18" t="s">
         <v>48</v>
       </c>
-      <c r="N7" s="15"/>
-      <c r="O7" s="15"/>
-      <c r="P7" s="15"/>
-      <c r="Q7" s="15"/>
-      <c r="R7" s="15"/>
-      <c r="S7" s="15"/>
-    </row>
-    <row r="8" spans="1:19" ht="288" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="17" t="s">
+      <c r="N9" s="19"/>
+      <c r="O9" s="19"/>
+      <c r="P9" s="19"/>
+      <c r="Q9" s="19"/>
+      <c r="R9" s="19"/>
+      <c r="S9" s="19"/>
+    </row>
+    <row r="10" spans="1:20" ht="44" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="12" t="s">
         <v>49</v>
       </c>
-      <c r="B8" s="17"/>
-      <c r="C8" s="17"/>
-      <c r="D8" s="18" t="s">
+      <c r="B10" s="12"/>
+      <c r="C10" s="12"/>
+      <c r="D10" s="17" t="s">
         <v>50</v>
       </c>
-      <c r="E8" s="19"/>
-      <c r="F8" s="19"/>
-      <c r="G8" s="19"/>
-      <c r="H8" s="19"/>
-      <c r="I8" s="19"/>
-      <c r="J8" s="19"/>
-      <c r="K8" s="19"/>
-      <c r="L8" s="19"/>
-      <c r="M8" s="18" t="s">
+      <c r="E10" s="17"/>
+      <c r="F10" s="17"/>
+      <c r="G10" s="17"/>
+      <c r="H10" s="17"/>
+      <c r="I10" s="17"/>
+      <c r="J10" s="17"/>
+      <c r="K10" s="17"/>
+      <c r="L10" s="17"/>
+      <c r="M10" s="17" t="s">
         <v>51</v>
       </c>
-      <c r="N8" s="19"/>
-      <c r="O8" s="19"/>
-      <c r="P8" s="19"/>
-      <c r="Q8" s="19"/>
-      <c r="R8" s="19"/>
-      <c r="S8" s="19"/>
-    </row>
-    <row r="9" spans="1:19" ht="44" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="14" t="s">
-        <v>52</v>
-      </c>
-      <c r="B9" s="14"/>
-      <c r="C9" s="14"/>
-      <c r="D9" s="15" t="s">
-        <v>53</v>
-      </c>
-      <c r="E9" s="15"/>
-      <c r="F9" s="15"/>
-      <c r="G9" s="15"/>
-      <c r="H9" s="15"/>
-      <c r="I9" s="15"/>
-      <c r="J9" s="15"/>
-      <c r="K9" s="15"/>
-      <c r="L9" s="15"/>
-      <c r="M9" s="15" t="s">
-        <v>54</v>
-      </c>
-      <c r="N9" s="15"/>
-      <c r="O9" s="15"/>
-      <c r="P9" s="15"/>
-      <c r="Q9" s="15"/>
-      <c r="R9" s="15"/>
-      <c r="S9" s="15"/>
+      <c r="N10" s="17"/>
+      <c r="O10" s="17"/>
+      <c r="P10" s="17"/>
+      <c r="Q10" s="17"/>
+      <c r="R10" s="17"/>
+      <c r="S10" s="17"/>
     </row>
   </sheetData>
-  <mergeCells count="25">
-    <mergeCell ref="A8:C8"/>
-    <mergeCell ref="D8:L8"/>
-    <mergeCell ref="M8:S8"/>
-    <mergeCell ref="A9:C9"/>
-    <mergeCell ref="D9:L9"/>
-    <mergeCell ref="M9:S9"/>
-    <mergeCell ref="A6:C6"/>
-    <mergeCell ref="D6:L6"/>
-    <mergeCell ref="M6:S6"/>
-    <mergeCell ref="A7:C7"/>
-    <mergeCell ref="D7:L7"/>
-    <mergeCell ref="M7:S7"/>
+  <mergeCells count="26">
+    <mergeCell ref="T7:T8"/>
+    <mergeCell ref="A1:S1"/>
+    <mergeCell ref="A5:C5"/>
+    <mergeCell ref="D5:L5"/>
+    <mergeCell ref="M5:S5"/>
+    <mergeCell ref="A3:C3"/>
+    <mergeCell ref="D3:L3"/>
+    <mergeCell ref="A2:C2"/>
+    <mergeCell ref="D2:L2"/>
     <mergeCell ref="M2:S2"/>
     <mergeCell ref="M3:S3"/>
     <mergeCell ref="A4:C4"/>
     <mergeCell ref="D4:L4"/>
     <mergeCell ref="M4:S4"/>
-    <mergeCell ref="A5:C5"/>
-    <mergeCell ref="D5:L5"/>
-    <mergeCell ref="M5:S5"/>
-    <mergeCell ref="A1:J1"/>
-    <mergeCell ref="A3:C3"/>
-    <mergeCell ref="D3:L3"/>
-    <mergeCell ref="A2:C2"/>
-    <mergeCell ref="D2:L2"/>
+    <mergeCell ref="A6:C6"/>
+    <mergeCell ref="D6:L6"/>
+    <mergeCell ref="M6:S6"/>
+    <mergeCell ref="A7:C8"/>
+    <mergeCell ref="D7:L8"/>
+    <mergeCell ref="M7:S8"/>
+    <mergeCell ref="A9:C9"/>
+    <mergeCell ref="D9:L9"/>
+    <mergeCell ref="M9:S9"/>
+    <mergeCell ref="A10:C10"/>
+    <mergeCell ref="D10:L10"/>
+    <mergeCell ref="M10:S10"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Android/ETHDemo/ETH_web3_infura_etherscan.io_API.xlsx
+++ b/Android/ETHDemo/ETH_web3_infura_etherscan.io_API.xlsx
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="60">
   <si>
     <t>Description</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -441,10 +441,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>返回：EthTransaction 对象</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Annotation</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -496,151 +492,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve">blockNumber：區塊高度
-timeStamp：時間戳
-hash：交易哈希值
-nonce：随机数 &amp; {位置}:
-blockHash：區塊的hash值
-transactionIndex：
-from：發送方的帳戶地址
-to：接收方的帳戶地址
-value：交易金額
-gas：燃料限制==gasLimit
-gasPrice：當前燃料的價格（默認Gwei為單位1E-9）
-isError：
-txreceipt_status：數據狀態
-input：數據輸入（base64格式）
-contractAddress：合約地址
-cumulativeGasUsed：累積交易燃料費用
-gasUsed：交易燃料费用
-confirmations：區塊確認數
-</t>
-    <rPh sb="12" eb="13">
-      <t>qu kuai</t>
-    </rPh>
-    <rPh sb="14" eb="15">
-      <t>gao du</t>
-    </rPh>
-    <rPh sb="27" eb="28">
-      <t>shi jian chuo</t>
-    </rPh>
-    <rPh sb="70" eb="71">
-      <t>qu kuai</t>
-    </rPh>
-    <rPh sb="72" eb="73">
-      <t>de</t>
-    </rPh>
-    <rPh sb="77" eb="78">
-      <t>zhi</t>
-    </rPh>
-    <rPh sb="102" eb="103">
-      <t>fa song</t>
-    </rPh>
-    <rPh sb="104" eb="105">
-      <t>fang</t>
-    </rPh>
-    <rPh sb="105" eb="106">
-      <t>de</t>
-    </rPh>
-    <rPh sb="106" eb="107">
-      <t>zhang hu</t>
-    </rPh>
-    <rPh sb="108" eb="109">
-      <t>di zhi</t>
-    </rPh>
-    <rPh sb="114" eb="115">
-      <t>jei shou</t>
-    </rPh>
-    <rPh sb="116" eb="117">
-      <t>fang</t>
-    </rPh>
-    <rPh sb="117" eb="118">
-      <t>de</t>
-    </rPh>
-    <rPh sb="118" eb="119">
-      <t>zhag hu</t>
-    </rPh>
-    <rPh sb="120" eb="121">
-      <t>di zhi</t>
-    </rPh>
-    <rPh sb="129" eb="130">
-      <t>jiao yi</t>
-    </rPh>
-    <rPh sb="131" eb="132">
-      <t>jin e</t>
-    </rPh>
-    <rPh sb="138" eb="139">
-      <t>ran liao</t>
-    </rPh>
-    <rPh sb="140" eb="141">
-      <t>xian zhi</t>
-    </rPh>
-    <rPh sb="162" eb="163">
-      <t>dang qian</t>
-    </rPh>
-    <rPh sb="164" eb="165">
-      <t>ran l</t>
-    </rPh>
-    <rPh sb="166" eb="167">
-      <t>de</t>
-    </rPh>
-    <rPh sb="167" eb="168">
-      <t>jia ge</t>
-    </rPh>
-    <rPh sb="170" eb="171">
-      <t>mo ren</t>
-    </rPh>
-    <rPh sb="176" eb="177">
-      <t>wei</t>
-    </rPh>
-    <rPh sb="177" eb="178">
-      <t>dan wei</t>
-    </rPh>
-    <rPh sb="211" eb="212">
-      <t>shu ju</t>
-    </rPh>
-    <rPh sb="213" eb="214">
-      <t>zhuzng tai</t>
-    </rPh>
-    <rPh sb="222" eb="223">
-      <t>shu ju</t>
-    </rPh>
-    <rPh sb="224" eb="225">
-      <t>shu ru</t>
-    </rPh>
-    <rPh sb="233" eb="234">
-      <t>ge sh</t>
-    </rPh>
-    <rPh sb="253" eb="254">
-      <t>he yue</t>
-    </rPh>
-    <rPh sb="255" eb="256">
-      <t>di zhi</t>
-    </rPh>
-    <rPh sb="276" eb="277">
-      <t>lei ji</t>
-    </rPh>
-    <rPh sb="278" eb="279">
-      <t>jiao yi</t>
-    </rPh>
-    <rPh sb="280" eb="281">
-      <t>ran liao</t>
-    </rPh>
-    <rPh sb="282" eb="283">
-      <t>fei yong</t>
-    </rPh>
-    <rPh sb="314" eb="315">
-      <t>qu kuai</t>
-    </rPh>
-    <rPh sb="316" eb="317">
-      <t>que ren shu</t>
-    </rPh>
-    <rPh sb="318" eb="319">
-      <t>shu</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>1. method Fir:
 Transfer.sendFunds(web3j, credentials, addressTo, amount, Convert.Unit.ETHER).send()
 2. method Sec:
@@ -755,12 +606,327 @@
     </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>返回：EthTransaction 对象
+eg: EthTransaction ethTransaction = ethTransactionFuture.get();
+                        Transaction transaction = ethTransaction.getTransaction();</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color theme="4"/>
+        <rFont val="华文楷体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">transaction.getBlockNumber():     區塊高度  </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color theme="1"/>
+        <rFont val="华文楷体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">
+ transaction.getBlockHash() :區塊hash
+transaction.getBlockNumberRaw(): 
+transaction.getGasPriceRaw():
+ transaction.getGasPrice():燃料價格
+ transaction.getGasRaw():燃料限制
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color theme="4"/>
+        <rFont val="华文楷体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve"> transaction.getHash():交易hash</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color theme="1"/>
+        <rFont val="华文楷体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">
+  transaction.getInput():  輸入內容     
+ transaction.getNonceRaw():        
+ transaction.getNonce():   
+transaction.getS():                 
+ transaction.getR():    
+ transaction.getRow()    
+ transaction.getFrom():    
+ transaction.getTo():     
+  transaction.getTransactionIndexRaw():
+ transaction.getTransactionIndex():
+ transaction.getValue():
+transaction.getValueRaw():
+transaction.getCreates():</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">blockNumber：區塊高度
+timeStamp：時間戳
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color theme="4"/>
+        <rFont val="华文楷体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>hash：交易哈希值</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color theme="1"/>
+        <rFont val="华文楷体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">
+nonce：随机数 &amp; {位置}:
+blockHash：區塊的hash值
+transactionIndex：
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color theme="4"/>
+        <rFont val="华文楷体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>from：發送方的帳戶地址
+to：接收方的帳戶地址</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color theme="1"/>
+        <rFont val="华文楷体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color theme="4"/>
+        <rFont val="华文楷体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>value：交易金額</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color theme="1"/>
+        <rFont val="华文楷体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color theme="4"/>
+        <rFont val="华文楷体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>gas：燃料限制==gasLimit
+gasPrice：當前燃料的價格（默認Gwei為單位1E-9）</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color theme="1"/>
+        <rFont val="华文楷体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">
+isError：
+txreceipt_status：數據狀態
+input：數據輸入（base64格式）
+contractAddress：合約地址
+cumulativeGasUsed：累積交易燃料費用
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color theme="4"/>
+        <rFont val="华文楷体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>gasUsed：交易燃料费用
+confirmations：區塊確認數</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color theme="1"/>
+        <rFont val="华文楷体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <rPh sb="12" eb="13">
+      <t>qu kuai</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>gao du</t>
+    </rPh>
+    <rPh sb="27" eb="28">
+      <t>shi jian chuo</t>
+    </rPh>
+    <rPh sb="70" eb="71">
+      <t>qu kuai</t>
+    </rPh>
+    <rPh sb="72" eb="73">
+      <t>de</t>
+    </rPh>
+    <rPh sb="77" eb="78">
+      <t>zhi</t>
+    </rPh>
+    <rPh sb="102" eb="103">
+      <t>fa song</t>
+    </rPh>
+    <rPh sb="104" eb="105">
+      <t>fang</t>
+    </rPh>
+    <rPh sb="105" eb="106">
+      <t>de</t>
+    </rPh>
+    <rPh sb="106" eb="107">
+      <t>zhang hu</t>
+    </rPh>
+    <rPh sb="108" eb="109">
+      <t>di zhi</t>
+    </rPh>
+    <rPh sb="114" eb="115">
+      <t>jei shou</t>
+    </rPh>
+    <rPh sb="116" eb="117">
+      <t>fang</t>
+    </rPh>
+    <rPh sb="117" eb="118">
+      <t>de</t>
+    </rPh>
+    <rPh sb="118" eb="119">
+      <t>zhag hu</t>
+    </rPh>
+    <rPh sb="120" eb="121">
+      <t>di zhi</t>
+    </rPh>
+    <rPh sb="129" eb="130">
+      <t>jiao yi</t>
+    </rPh>
+    <rPh sb="131" eb="132">
+      <t>jin e</t>
+    </rPh>
+    <rPh sb="138" eb="139">
+      <t>ran liao</t>
+    </rPh>
+    <rPh sb="140" eb="141">
+      <t>xian zhi</t>
+    </rPh>
+    <rPh sb="162" eb="163">
+      <t>dang qian</t>
+    </rPh>
+    <rPh sb="164" eb="165">
+      <t>ran l</t>
+    </rPh>
+    <rPh sb="166" eb="167">
+      <t>de</t>
+    </rPh>
+    <rPh sb="167" eb="168">
+      <t>jia ge</t>
+    </rPh>
+    <rPh sb="170" eb="171">
+      <t>mo ren</t>
+    </rPh>
+    <rPh sb="176" eb="177">
+      <t>wei</t>
+    </rPh>
+    <rPh sb="177" eb="178">
+      <t>dan wei</t>
+    </rPh>
+    <rPh sb="211" eb="212">
+      <t>shu ju</t>
+    </rPh>
+    <rPh sb="213" eb="214">
+      <t>zhuzng tai</t>
+    </rPh>
+    <rPh sb="222" eb="223">
+      <t>shu ju</t>
+    </rPh>
+    <rPh sb="224" eb="225">
+      <t>shu ru</t>
+    </rPh>
+    <rPh sb="233" eb="234">
+      <t>ge sh</t>
+    </rPh>
+    <rPh sb="253" eb="254">
+      <t>he yue</t>
+    </rPh>
+    <rPh sb="255" eb="256">
+      <t>di zhi</t>
+    </rPh>
+    <rPh sb="276" eb="277">
+      <t>lei ji</t>
+    </rPh>
+    <rPh sb="278" eb="279">
+      <t>jiao yi</t>
+    </rPh>
+    <rPh sb="280" eb="281">
+      <t>ran liao</t>
+    </rPh>
+    <rPh sb="282" eb="283">
+      <t>fei yong</t>
+    </rPh>
+    <rPh sb="314" eb="315">
+      <t>qu kuai</t>
+    </rPh>
+    <rPh sb="316" eb="317">
+      <t>que ren shu</t>
+    </rPh>
+    <rPh sb="318" eb="319">
+      <t>shu</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="18" x14ac:knownFonts="1">
+  <fonts count="22" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -890,6 +1056,39 @@
       <name val="DengXian (正文)"/>
       <charset val="134"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color theme="7" tint="0.79998168889431442"/>
+      <name val="DengXian"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="10"/>
+      <name val="DengXian"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="11"/>
+      <name val="DengXian"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="16"/>
+      <color theme="4"/>
+      <name val="华文楷体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
   </fonts>
   <fills count="6">
     <fill>
@@ -923,7 +1122,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="9">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -1012,16 +1211,35 @@
       <left style="thin">
         <color auto="1"/>
       </left>
-      <right/>
-      <top/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="37">
+  <cellXfs count="44">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1039,6 +1257,12 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -1051,27 +1275,27 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="12" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="12" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -1114,24 +1338,35 @@
     <xf numFmtId="0" fontId="12" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="13" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="3">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="超链接" xfId="1" builtinId="8" hidden="1"/>
+    <cellStyle name="已访问的超链接" xfId="2" builtinId="9" hidden="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium7"/>
@@ -1423,54 +1658,54 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A1" s="7" t="s">
+      <c r="A1" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="B1" s="8"/>
-      <c r="C1" s="8"/>
-      <c r="D1" s="8"/>
-      <c r="E1" s="8"/>
-      <c r="F1" s="8"/>
+      <c r="B1" s="10"/>
+      <c r="C1" s="10"/>
+      <c r="D1" s="10"/>
+      <c r="E1" s="10"/>
+      <c r="F1" s="10"/>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A2" s="8"/>
-      <c r="B2" s="8"/>
-      <c r="C2" s="8"/>
-      <c r="D2" s="8"/>
-      <c r="E2" s="8"/>
-      <c r="F2" s="8"/>
+      <c r="A2" s="10"/>
+      <c r="B2" s="10"/>
+      <c r="C2" s="10"/>
+      <c r="D2" s="10"/>
+      <c r="E2" s="10"/>
+      <c r="F2" s="10"/>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A3" s="8"/>
-      <c r="B3" s="8"/>
-      <c r="C3" s="8"/>
-      <c r="D3" s="8"/>
-      <c r="E3" s="8"/>
-      <c r="F3" s="8"/>
+      <c r="A3" s="10"/>
+      <c r="B3" s="10"/>
+      <c r="C3" s="10"/>
+      <c r="D3" s="10"/>
+      <c r="E3" s="10"/>
+      <c r="F3" s="10"/>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A4" s="8"/>
-      <c r="B4" s="8"/>
-      <c r="C4" s="8"/>
-      <c r="D4" s="8"/>
-      <c r="E4" s="8"/>
-      <c r="F4" s="8"/>
+      <c r="A4" s="10"/>
+      <c r="B4" s="10"/>
+      <c r="C4" s="10"/>
+      <c r="D4" s="10"/>
+      <c r="E4" s="10"/>
+      <c r="F4" s="10"/>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A5" s="8"/>
-      <c r="B5" s="8"/>
-      <c r="C5" s="8"/>
-      <c r="D5" s="8"/>
-      <c r="E5" s="8"/>
-      <c r="F5" s="8"/>
+      <c r="A5" s="10"/>
+      <c r="B5" s="10"/>
+      <c r="C5" s="10"/>
+      <c r="D5" s="10"/>
+      <c r="E5" s="10"/>
+      <c r="F5" s="10"/>
     </row>
     <row r="6" spans="1:6" ht="128" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="8"/>
-      <c r="B6" s="8"/>
-      <c r="C6" s="8"/>
-      <c r="D6" s="8"/>
-      <c r="E6" s="8"/>
-      <c r="F6" s="8"/>
+      <c r="A6" s="10"/>
+      <c r="B6" s="10"/>
+      <c r="C6" s="10"/>
+      <c r="D6" s="10"/>
+      <c r="E6" s="10"/>
+      <c r="F6" s="10"/>
     </row>
     <row r="8" spans="1:6" ht="19" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
@@ -1545,34 +1780,34 @@
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A16" s="9" t="s">
+      <c r="A16" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="B16" s="9"/>
-      <c r="C16" s="9"/>
-      <c r="D16" s="9"/>
-      <c r="E16" s="9"/>
+      <c r="B16" s="11"/>
+      <c r="C16" s="11"/>
+      <c r="D16" s="11"/>
+      <c r="E16" s="11"/>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A17" s="9"/>
-      <c r="B17" s="9"/>
-      <c r="C17" s="9"/>
-      <c r="D17" s="9"/>
-      <c r="E17" s="9"/>
+      <c r="A17" s="11"/>
+      <c r="B17" s="11"/>
+      <c r="C17" s="11"/>
+      <c r="D17" s="11"/>
+      <c r="E17" s="11"/>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A18" s="9"/>
-      <c r="B18" s="9"/>
-      <c r="C18" s="9"/>
-      <c r="D18" s="9"/>
-      <c r="E18" s="9"/>
+      <c r="A18" s="11"/>
+      <c r="B18" s="11"/>
+      <c r="C18" s="11"/>
+      <c r="D18" s="11"/>
+      <c r="E18" s="11"/>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A19" s="9"/>
-      <c r="B19" s="9"/>
-      <c r="C19" s="9"/>
-      <c r="D19" s="9"/>
-      <c r="E19" s="9"/>
+      <c r="A19" s="11"/>
+      <c r="B19" s="11"/>
+      <c r="C19" s="11"/>
+      <c r="D19" s="11"/>
+      <c r="E19" s="11"/>
     </row>
     <row r="21" spans="1:6" ht="19" x14ac:dyDescent="0.2">
       <c r="A21" s="1" t="s">
@@ -1604,46 +1839,46 @@
       <c r="D23" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="E23" s="10" t="s">
+      <c r="E23" s="12" t="s">
         <v>28</v>
       </c>
-      <c r="F23" s="10"/>
+      <c r="F23" s="12"/>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="E24" s="10"/>
-      <c r="F24" s="10"/>
+      <c r="E24" s="12"/>
+      <c r="F24" s="12"/>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="E25" s="10"/>
-      <c r="F25" s="10"/>
+      <c r="E25" s="12"/>
+      <c r="F25" s="12"/>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="E26" s="10"/>
-      <c r="F26" s="10"/>
+      <c r="E26" s="12"/>
+      <c r="F26" s="12"/>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="E27" s="10"/>
-      <c r="F27" s="10"/>
+      <c r="E27" s="12"/>
+      <c r="F27" s="12"/>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="E28" s="10"/>
-      <c r="F28" s="10"/>
+      <c r="E28" s="12"/>
+      <c r="F28" s="12"/>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="E29" s="10"/>
-      <c r="F29" s="10"/>
+      <c r="E29" s="12"/>
+      <c r="F29" s="12"/>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="E30" s="10"/>
-      <c r="F30" s="10"/>
+      <c r="E30" s="12"/>
+      <c r="F30" s="12"/>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="E31" s="10"/>
-      <c r="F31" s="10"/>
+      <c r="E31" s="12"/>
+      <c r="F31" s="12"/>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="E32" s="10"/>
-      <c r="F32" s="10"/>
+      <c r="E32" s="12"/>
+      <c r="F32" s="12"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -1658,10 +1893,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:T10"/>
+  <dimension ref="A1:T11"/>
   <sheetViews>
-    <sheetView tabSelected="1" showRuler="0" topLeftCell="D1" zoomScale="99" workbookViewId="0">
-      <selection activeCell="T1" sqref="T1"/>
+    <sheetView tabSelected="1" showRuler="0" topLeftCell="H1" zoomScale="99" workbookViewId="0">
+      <selection activeCell="M7" sqref="M7:S8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="44" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1669,12 +1904,12 @@
     <col min="1" max="1" width="10.5" customWidth="1"/>
     <col min="18" max="18" width="7.6640625" customWidth="1"/>
     <col min="19" max="19" width="10.83203125" hidden="1" customWidth="1"/>
-    <col min="20" max="20" width="54.33203125" customWidth="1"/>
+    <col min="20" max="20" width="84.1640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:20" ht="267" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="35" t="s">
-        <v>57</v>
+      <c r="A1" s="13" t="s">
+        <v>55</v>
       </c>
       <c r="B1" s="14"/>
       <c r="C1" s="14"/>
@@ -1694,249 +1929,253 @@
       <c r="Q1" s="14"/>
       <c r="R1" s="14"/>
       <c r="S1" s="14"/>
-      <c r="T1" s="36" t="s">
-        <v>58</v>
+      <c r="T1" s="8" t="s">
+        <v>56</v>
       </c>
     </row>
     <row r="2" spans="1:20" ht="29" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="13" t="s">
+      <c r="A2" s="18" t="s">
         <v>33</v>
       </c>
-      <c r="B2" s="13"/>
-      <c r="C2" s="13"/>
-      <c r="D2" s="13" t="s">
+      <c r="B2" s="18"/>
+      <c r="C2" s="18"/>
+      <c r="D2" s="18" t="s">
         <v>34</v>
       </c>
-      <c r="E2" s="13"/>
-      <c r="F2" s="13"/>
-      <c r="G2" s="13"/>
-      <c r="H2" s="13"/>
-      <c r="I2" s="13"/>
-      <c r="J2" s="13"/>
-      <c r="K2" s="13"/>
-      <c r="L2" s="13"/>
-      <c r="M2" s="13" t="s">
+      <c r="E2" s="18"/>
+      <c r="F2" s="18"/>
+      <c r="G2" s="18"/>
+      <c r="H2" s="18"/>
+      <c r="I2" s="18"/>
+      <c r="J2" s="18"/>
+      <c r="K2" s="18"/>
+      <c r="L2" s="18"/>
+      <c r="M2" s="18" t="s">
         <v>1</v>
       </c>
-      <c r="N2" s="13"/>
-      <c r="O2" s="13"/>
-      <c r="P2" s="13"/>
-      <c r="Q2" s="13"/>
-      <c r="R2" s="13"/>
-      <c r="S2" s="13"/>
-      <c r="T2" s="15" t="s">
+      <c r="N2" s="18"/>
+      <c r="O2" s="18"/>
+      <c r="P2" s="18"/>
+      <c r="Q2" s="18"/>
+      <c r="R2" s="18"/>
+      <c r="S2" s="18"/>
+      <c r="T2" s="7" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="3" spans="1:20" ht="315" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="15" t="s">
+        <v>31</v>
+      </c>
+      <c r="B3" s="15"/>
+      <c r="C3" s="15"/>
+      <c r="D3" s="17" t="s">
+        <v>32</v>
+      </c>
+      <c r="E3" s="16"/>
+      <c r="F3" s="16"/>
+      <c r="G3" s="16"/>
+      <c r="H3" s="16"/>
+      <c r="I3" s="16"/>
+      <c r="J3" s="16"/>
+      <c r="K3" s="16"/>
+      <c r="L3" s="16"/>
+      <c r="M3" s="17" t="s">
+        <v>35</v>
+      </c>
+      <c r="N3" s="16"/>
+      <c r="O3" s="16"/>
+      <c r="P3" s="16"/>
+      <c r="Q3" s="16"/>
+      <c r="R3" s="16"/>
+      <c r="S3" s="16"/>
+      <c r="T3" s="34" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="3" spans="1:20" ht="315" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="12" t="s">
-        <v>31</v>
-      </c>
-      <c r="B3" s="12"/>
-      <c r="C3" s="12"/>
-      <c r="D3" s="16" t="s">
-        <v>32</v>
-      </c>
-      <c r="E3" s="17"/>
-      <c r="F3" s="17"/>
-      <c r="G3" s="17"/>
-      <c r="H3" s="17"/>
-      <c r="I3" s="17"/>
-      <c r="J3" s="17"/>
-      <c r="K3" s="17"/>
-      <c r="L3" s="17"/>
-      <c r="M3" s="16" t="s">
-        <v>35</v>
-      </c>
-      <c r="N3" s="17"/>
-      <c r="O3" s="17"/>
-      <c r="P3" s="17"/>
-      <c r="Q3" s="17"/>
-      <c r="R3" s="17"/>
-      <c r="S3" s="17"/>
-      <c r="T3" s="34" t="s">
+    <row r="4" spans="1:20" ht="250" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="19" t="s">
+        <v>36</v>
+      </c>
+      <c r="B4" s="19"/>
+      <c r="C4" s="19"/>
+      <c r="D4" s="20" t="s">
+        <v>37</v>
+      </c>
+      <c r="E4" s="21"/>
+      <c r="F4" s="21"/>
+      <c r="G4" s="21"/>
+      <c r="H4" s="21"/>
+      <c r="I4" s="21"/>
+      <c r="J4" s="21"/>
+      <c r="K4" s="21"/>
+      <c r="L4" s="21"/>
+      <c r="M4" s="20" t="s">
+        <v>38</v>
+      </c>
+      <c r="N4" s="21"/>
+      <c r="O4" s="21"/>
+      <c r="P4" s="21"/>
+      <c r="Q4" s="21"/>
+      <c r="R4" s="21"/>
+      <c r="S4" s="21"/>
+      <c r="T4" s="37"/>
+    </row>
+    <row r="5" spans="1:20" ht="160" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="15" t="s">
+        <v>39</v>
+      </c>
+      <c r="B5" s="15"/>
+      <c r="C5" s="15"/>
+      <c r="D5" s="16" t="s">
+        <v>40</v>
+      </c>
+      <c r="E5" s="16"/>
+      <c r="F5" s="16"/>
+      <c r="G5" s="16"/>
+      <c r="H5" s="16"/>
+      <c r="I5" s="16"/>
+      <c r="J5" s="16"/>
+      <c r="K5" s="16"/>
+      <c r="L5" s="16"/>
+      <c r="M5" s="17" t="s">
+        <v>41</v>
+      </c>
+      <c r="N5" s="16"/>
+      <c r="O5" s="16"/>
+      <c r="P5" s="16"/>
+      <c r="Q5" s="16"/>
+      <c r="R5" s="16"/>
+      <c r="S5" s="16"/>
+      <c r="T5" s="38"/>
+    </row>
+    <row r="6" spans="1:20" ht="242" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="19" t="s">
+        <v>42</v>
+      </c>
+      <c r="B6" s="19"/>
+      <c r="C6" s="19"/>
+      <c r="D6" s="20" t="s">
+        <v>43</v>
+      </c>
+      <c r="E6" s="21"/>
+      <c r="F6" s="21"/>
+      <c r="G6" s="21"/>
+      <c r="H6" s="21"/>
+      <c r="I6" s="21"/>
+      <c r="J6" s="21"/>
+      <c r="K6" s="21"/>
+      <c r="L6" s="21"/>
+      <c r="M6" s="20" t="s">
+        <v>44</v>
+      </c>
+      <c r="N6" s="21"/>
+      <c r="O6" s="21"/>
+      <c r="P6" s="21"/>
+      <c r="Q6" s="21"/>
+      <c r="R6" s="21"/>
+      <c r="S6" s="21"/>
+      <c r="T6" s="39"/>
+    </row>
+    <row r="7" spans="1:20" ht="242" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="22" t="s">
+        <v>45</v>
+      </c>
+      <c r="B7" s="23"/>
+      <c r="C7" s="24"/>
+      <c r="D7" s="28" t="s">
+        <v>46</v>
+      </c>
+      <c r="E7" s="29"/>
+      <c r="F7" s="29"/>
+      <c r="G7" s="29"/>
+      <c r="H7" s="29"/>
+      <c r="I7" s="29"/>
+      <c r="J7" s="29"/>
+      <c r="K7" s="29"/>
+      <c r="L7" s="30"/>
+      <c r="M7" s="28" t="s">
         <v>53</v>
       </c>
-    </row>
-    <row r="4" spans="1:20" ht="250" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="11" t="s">
-        <v>36</v>
-      </c>
-      <c r="B4" s="11"/>
-      <c r="C4" s="11"/>
-      <c r="D4" s="18" t="s">
-        <v>37</v>
-      </c>
-      <c r="E4" s="19"/>
-      <c r="F4" s="19"/>
-      <c r="G4" s="19"/>
-      <c r="H4" s="19"/>
-      <c r="I4" s="19"/>
-      <c r="J4" s="19"/>
-      <c r="K4" s="19"/>
-      <c r="L4" s="19"/>
-      <c r="M4" s="18" t="s">
-        <v>38</v>
-      </c>
-      <c r="N4" s="19"/>
-      <c r="O4" s="19"/>
-      <c r="P4" s="19"/>
-      <c r="Q4" s="19"/>
-      <c r="R4" s="19"/>
-      <c r="S4" s="19"/>
-    </row>
-    <row r="5" spans="1:20" ht="160" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="12" t="s">
-        <v>39</v>
-      </c>
-      <c r="B5" s="12"/>
-      <c r="C5" s="12"/>
-      <c r="D5" s="17" t="s">
-        <v>40</v>
-      </c>
-      <c r="E5" s="17"/>
-      <c r="F5" s="17"/>
-      <c r="G5" s="17"/>
-      <c r="H5" s="17"/>
-      <c r="I5" s="17"/>
-      <c r="J5" s="17"/>
-      <c r="K5" s="17"/>
-      <c r="L5" s="17"/>
-      <c r="M5" s="16" t="s">
-        <v>41</v>
-      </c>
-      <c r="N5" s="17"/>
-      <c r="O5" s="17"/>
-      <c r="P5" s="17"/>
-      <c r="Q5" s="17"/>
-      <c r="R5" s="17"/>
-      <c r="S5" s="17"/>
-    </row>
-    <row r="6" spans="1:20" ht="242" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="11" t="s">
-        <v>42</v>
-      </c>
-      <c r="B6" s="11"/>
-      <c r="C6" s="11"/>
-      <c r="D6" s="18" t="s">
-        <v>43</v>
-      </c>
-      <c r="E6" s="19"/>
-      <c r="F6" s="19"/>
-      <c r="G6" s="19"/>
-      <c r="H6" s="19"/>
-      <c r="I6" s="19"/>
-      <c r="J6" s="19"/>
-      <c r="K6" s="19"/>
-      <c r="L6" s="19"/>
-      <c r="M6" s="18" t="s">
-        <v>44</v>
-      </c>
-      <c r="N6" s="19"/>
-      <c r="O6" s="19"/>
-      <c r="P6" s="19"/>
-      <c r="Q6" s="19"/>
-      <c r="R6" s="19"/>
-      <c r="S6" s="19"/>
-    </row>
-    <row r="7" spans="1:20" ht="242" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="20" t="s">
-        <v>45</v>
-      </c>
-      <c r="B7" s="21"/>
-      <c r="C7" s="22"/>
-      <c r="D7" s="26" t="s">
-        <v>46</v>
-      </c>
-      <c r="E7" s="27"/>
-      <c r="F7" s="27"/>
-      <c r="G7" s="27"/>
-      <c r="H7" s="27"/>
-      <c r="I7" s="27"/>
-      <c r="J7" s="27"/>
-      <c r="K7" s="27"/>
-      <c r="L7" s="28"/>
-      <c r="M7" s="26" t="s">
+      <c r="N7" s="29"/>
+      <c r="O7" s="29"/>
+      <c r="P7" s="29"/>
+      <c r="Q7" s="29"/>
+      <c r="R7" s="29"/>
+      <c r="S7" s="30"/>
+      <c r="T7" s="35" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20" ht="409" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="25"/>
+      <c r="B8" s="26"/>
+      <c r="C8" s="27"/>
+      <c r="D8" s="31"/>
+      <c r="E8" s="32"/>
+      <c r="F8" s="32"/>
+      <c r="G8" s="32"/>
+      <c r="H8" s="32"/>
+      <c r="I8" s="32"/>
+      <c r="J8" s="32"/>
+      <c r="K8" s="32"/>
+      <c r="L8" s="33"/>
+      <c r="M8" s="31"/>
+      <c r="N8" s="32"/>
+      <c r="O8" s="32"/>
+      <c r="P8" s="32"/>
+      <c r="Q8" s="32"/>
+      <c r="R8" s="32"/>
+      <c r="S8" s="33"/>
+      <c r="T8" s="36"/>
+    </row>
+    <row r="9" spans="1:20" ht="409" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="19" t="s">
+        <v>47</v>
+      </c>
+      <c r="B9" s="19"/>
+      <c r="C9" s="19"/>
+      <c r="D9" s="20" t="s">
         <v>54</v>
       </c>
-      <c r="N7" s="27"/>
-      <c r="O7" s="27"/>
-      <c r="P7" s="27"/>
-      <c r="Q7" s="27"/>
-      <c r="R7" s="27"/>
-      <c r="S7" s="28"/>
-      <c r="T7" s="32" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="8" spans="1:20" ht="409" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="23"/>
-      <c r="B8" s="24"/>
-      <c r="C8" s="25"/>
-      <c r="D8" s="29"/>
-      <c r="E8" s="30"/>
-      <c r="F8" s="30"/>
-      <c r="G8" s="30"/>
-      <c r="H8" s="30"/>
-      <c r="I8" s="30"/>
-      <c r="J8" s="30"/>
-      <c r="K8" s="30"/>
-      <c r="L8" s="31"/>
-      <c r="M8" s="29"/>
-      <c r="N8" s="30"/>
-      <c r="O8" s="30"/>
-      <c r="P8" s="30"/>
-      <c r="Q8" s="30"/>
-      <c r="R8" s="30"/>
-      <c r="S8" s="31"/>
-      <c r="T8" s="33"/>
-    </row>
-    <row r="9" spans="1:20" ht="409" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="11" t="s">
-        <v>47</v>
-      </c>
-      <c r="B9" s="11"/>
-      <c r="C9" s="11"/>
-      <c r="D9" s="18" t="s">
-        <v>56</v>
-      </c>
-      <c r="E9" s="19"/>
-      <c r="F9" s="19"/>
-      <c r="G9" s="19"/>
-      <c r="H9" s="19"/>
-      <c r="I9" s="19"/>
-      <c r="J9" s="19"/>
-      <c r="K9" s="19"/>
-      <c r="L9" s="19"/>
-      <c r="M9" s="18" t="s">
+      <c r="E9" s="21"/>
+      <c r="F9" s="21"/>
+      <c r="G9" s="21"/>
+      <c r="H9" s="21"/>
+      <c r="I9" s="21"/>
+      <c r="J9" s="21"/>
+      <c r="K9" s="21"/>
+      <c r="L9" s="21"/>
+      <c r="M9" s="20" t="s">
         <v>48</v>
       </c>
-      <c r="N9" s="19"/>
-      <c r="O9" s="19"/>
-      <c r="P9" s="19"/>
-      <c r="Q9" s="19"/>
-      <c r="R9" s="19"/>
-      <c r="S9" s="19"/>
-    </row>
-    <row r="10" spans="1:20" ht="44" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="12" t="s">
+      <c r="N9" s="21"/>
+      <c r="O9" s="21"/>
+      <c r="P9" s="21"/>
+      <c r="Q9" s="21"/>
+      <c r="R9" s="21"/>
+      <c r="S9" s="21"/>
+      <c r="T9" s="39"/>
+    </row>
+    <row r="10" spans="1:20" ht="282" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="40" t="s">
         <v>49</v>
       </c>
-      <c r="B10" s="12"/>
-      <c r="C10" s="12"/>
-      <c r="D10" s="17" t="s">
+      <c r="B10" s="40"/>
+      <c r="C10" s="40"/>
+      <c r="D10" s="16" t="s">
         <v>50</v>
       </c>
-      <c r="E10" s="17"/>
-      <c r="F10" s="17"/>
-      <c r="G10" s="17"/>
-      <c r="H10" s="17"/>
-      <c r="I10" s="17"/>
-      <c r="J10" s="17"/>
-      <c r="K10" s="17"/>
-      <c r="L10" s="17"/>
+      <c r="E10" s="16"/>
+      <c r="F10" s="16"/>
+      <c r="G10" s="16"/>
+      <c r="H10" s="16"/>
+      <c r="I10" s="16"/>
+      <c r="J10" s="16"/>
+      <c r="K10" s="16"/>
+      <c r="L10" s="16"/>
       <c r="M10" s="17" t="s">
-        <v>51</v>
+        <v>57</v>
       </c>
       <c r="N10" s="17"/>
       <c r="O10" s="17"/>
@@ -1944,9 +2183,45 @@
       <c r="Q10" s="17"/>
       <c r="R10" s="17"/>
       <c r="S10" s="17"/>
+      <c r="T10" s="42" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20" ht="172" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="41"/>
+      <c r="B11" s="41"/>
+      <c r="C11" s="41"/>
+      <c r="D11" s="16"/>
+      <c r="E11" s="16"/>
+      <c r="F11" s="16"/>
+      <c r="G11" s="16"/>
+      <c r="H11" s="16"/>
+      <c r="I11" s="16"/>
+      <c r="J11" s="16"/>
+      <c r="K11" s="16"/>
+      <c r="L11" s="16"/>
+      <c r="M11" s="17"/>
+      <c r="N11" s="17"/>
+      <c r="O11" s="17"/>
+      <c r="P11" s="17"/>
+      <c r="Q11" s="17"/>
+      <c r="R11" s="17"/>
+      <c r="S11" s="17"/>
+      <c r="T11" s="43"/>
     </row>
   </sheetData>
-  <mergeCells count="26">
+  <mergeCells count="27">
+    <mergeCell ref="T10:T11"/>
+    <mergeCell ref="D10:L11"/>
+    <mergeCell ref="A10:C11"/>
+    <mergeCell ref="M10:S11"/>
+    <mergeCell ref="M6:S6"/>
+    <mergeCell ref="A7:C8"/>
+    <mergeCell ref="D7:L8"/>
+    <mergeCell ref="M7:S8"/>
+    <mergeCell ref="A9:C9"/>
+    <mergeCell ref="D9:L9"/>
+    <mergeCell ref="M9:S9"/>
     <mergeCell ref="T7:T8"/>
     <mergeCell ref="A1:S1"/>
     <mergeCell ref="A5:C5"/>
@@ -1963,16 +2238,6 @@
     <mergeCell ref="M4:S4"/>
     <mergeCell ref="A6:C6"/>
     <mergeCell ref="D6:L6"/>
-    <mergeCell ref="M6:S6"/>
-    <mergeCell ref="A7:C8"/>
-    <mergeCell ref="D7:L8"/>
-    <mergeCell ref="M7:S8"/>
-    <mergeCell ref="A9:C9"/>
-    <mergeCell ref="D9:L9"/>
-    <mergeCell ref="M9:S9"/>
-    <mergeCell ref="A10:C10"/>
-    <mergeCell ref="D10:L10"/>
-    <mergeCell ref="M10:S10"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Android/ETHDemo/ETH_web3_infura_etherscan.io_API.xlsx
+++ b/Android/ETHDemo/ETH_web3_infura_etherscan.io_API.xlsx
@@ -492,15 +492,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>1. method Fir:
-Transfer.sendFunds(web3j, credentials, addressTo, amount, Convert.Unit.ETHER).send()
-2. method Sec:
-TransactionManager transactionManager = new RawTransactionManager(web3j, credentials);
-        Transfer transfer = new Transfer(web3j, transactionManager);
-transfer.sendFunds(addressTo, amount, Convert.Unit.ETHER, gasPrice, BigInteger.valueOf(21000).send</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <r>
       <t>1.Web3j:</t>
     </r>
@@ -918,6 +909,33 @@
     </rPh>
     <rPh sb="318" eb="319">
       <t>shu</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1. method Fir:默认用Web3j提供的GasPriceu 以及GasLimit。
+Transfer.sendFunds(web3j, credentials, addressTo, amount, Convert.Unit.ETHER).send()
+2. method Sec:自定义Gas额度
+TransactionManager transactionManager = new RawTransactionManager(web3j, credentials);
+        Transfer transfer = new Transfer(web3j, transactionManager);
+transfer.sendFunds(addressTo, amount, Convert.Unit.ETHER, gasPrice, BigInteger.valueOf(21000).send</t>
+    <rPh sb="14" eb="15">
+      <t>mo ren</t>
+    </rPh>
+    <rPh sb="16" eb="17">
+      <t>yong</t>
+    </rPh>
+    <rPh sb="22" eb="23">
+      <t>ti gong</t>
+    </rPh>
+    <rPh sb="24" eb="25">
+      <t>de</t>
+    </rPh>
+    <rPh sb="147" eb="148">
+      <t>zi ding y</t>
+    </rPh>
+    <rPh sb="153" eb="154">
+      <t>e du</t>
     </rPh>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1263,104 +1281,104 @@
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="13" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="12" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -1658,54 +1676,54 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A1" s="9" t="s">
+      <c r="A1" s="13" t="s">
         <v>29</v>
       </c>
-      <c r="B1" s="10"/>
-      <c r="C1" s="10"/>
-      <c r="D1" s="10"/>
-      <c r="E1" s="10"/>
-      <c r="F1" s="10"/>
+      <c r="B1" s="14"/>
+      <c r="C1" s="14"/>
+      <c r="D1" s="14"/>
+      <c r="E1" s="14"/>
+      <c r="F1" s="14"/>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A2" s="10"/>
-      <c r="B2" s="10"/>
-      <c r="C2" s="10"/>
-      <c r="D2" s="10"/>
-      <c r="E2" s="10"/>
-      <c r="F2" s="10"/>
+      <c r="A2" s="14"/>
+      <c r="B2" s="14"/>
+      <c r="C2" s="14"/>
+      <c r="D2" s="14"/>
+      <c r="E2" s="14"/>
+      <c r="F2" s="14"/>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A3" s="10"/>
-      <c r="B3" s="10"/>
-      <c r="C3" s="10"/>
-      <c r="D3" s="10"/>
-      <c r="E3" s="10"/>
-      <c r="F3" s="10"/>
+      <c r="A3" s="14"/>
+      <c r="B3" s="14"/>
+      <c r="C3" s="14"/>
+      <c r="D3" s="14"/>
+      <c r="E3" s="14"/>
+      <c r="F3" s="14"/>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A4" s="10"/>
-      <c r="B4" s="10"/>
-      <c r="C4" s="10"/>
-      <c r="D4" s="10"/>
-      <c r="E4" s="10"/>
-      <c r="F4" s="10"/>
+      <c r="A4" s="14"/>
+      <c r="B4" s="14"/>
+      <c r="C4" s="14"/>
+      <c r="D4" s="14"/>
+      <c r="E4" s="14"/>
+      <c r="F4" s="14"/>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A5" s="10"/>
-      <c r="B5" s="10"/>
-      <c r="C5" s="10"/>
-      <c r="D5" s="10"/>
-      <c r="E5" s="10"/>
-      <c r="F5" s="10"/>
+      <c r="A5" s="14"/>
+      <c r="B5" s="14"/>
+      <c r="C5" s="14"/>
+      <c r="D5" s="14"/>
+      <c r="E5" s="14"/>
+      <c r="F5" s="14"/>
     </row>
     <row r="6" spans="1:6" ht="128" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="10"/>
-      <c r="B6" s="10"/>
-      <c r="C6" s="10"/>
-      <c r="D6" s="10"/>
-      <c r="E6" s="10"/>
-      <c r="F6" s="10"/>
+      <c r="A6" s="14"/>
+      <c r="B6" s="14"/>
+      <c r="C6" s="14"/>
+      <c r="D6" s="14"/>
+      <c r="E6" s="14"/>
+      <c r="F6" s="14"/>
     </row>
     <row r="8" spans="1:6" ht="19" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
@@ -1780,34 +1798,34 @@
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A16" s="11" t="s">
+      <c r="A16" s="15" t="s">
         <v>30</v>
       </c>
-      <c r="B16" s="11"/>
-      <c r="C16" s="11"/>
-      <c r="D16" s="11"/>
-      <c r="E16" s="11"/>
+      <c r="B16" s="15"/>
+      <c r="C16" s="15"/>
+      <c r="D16" s="15"/>
+      <c r="E16" s="15"/>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A17" s="11"/>
-      <c r="B17" s="11"/>
-      <c r="C17" s="11"/>
-      <c r="D17" s="11"/>
-      <c r="E17" s="11"/>
+      <c r="A17" s="15"/>
+      <c r="B17" s="15"/>
+      <c r="C17" s="15"/>
+      <c r="D17" s="15"/>
+      <c r="E17" s="15"/>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A18" s="11"/>
-      <c r="B18" s="11"/>
-      <c r="C18" s="11"/>
-      <c r="D18" s="11"/>
-      <c r="E18" s="11"/>
+      <c r="A18" s="15"/>
+      <c r="B18" s="15"/>
+      <c r="C18" s="15"/>
+      <c r="D18" s="15"/>
+      <c r="E18" s="15"/>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A19" s="11"/>
-      <c r="B19" s="11"/>
-      <c r="C19" s="11"/>
-      <c r="D19" s="11"/>
-      <c r="E19" s="11"/>
+      <c r="A19" s="15"/>
+      <c r="B19" s="15"/>
+      <c r="C19" s="15"/>
+      <c r="D19" s="15"/>
+      <c r="E19" s="15"/>
     </row>
     <row r="21" spans="1:6" ht="19" x14ac:dyDescent="0.2">
       <c r="A21" s="1" t="s">
@@ -1839,46 +1857,46 @@
       <c r="D23" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="E23" s="12" t="s">
+      <c r="E23" s="16" t="s">
         <v>28</v>
       </c>
-      <c r="F23" s="12"/>
+      <c r="F23" s="16"/>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="E24" s="12"/>
-      <c r="F24" s="12"/>
+      <c r="E24" s="16"/>
+      <c r="F24" s="16"/>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="E25" s="12"/>
-      <c r="F25" s="12"/>
+      <c r="E25" s="16"/>
+      <c r="F25" s="16"/>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="E26" s="12"/>
-      <c r="F26" s="12"/>
+      <c r="E26" s="16"/>
+      <c r="F26" s="16"/>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="E27" s="12"/>
-      <c r="F27" s="12"/>
+      <c r="E27" s="16"/>
+      <c r="F27" s="16"/>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="E28" s="12"/>
-      <c r="F28" s="12"/>
+      <c r="E28" s="16"/>
+      <c r="F28" s="16"/>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="E29" s="12"/>
-      <c r="F29" s="12"/>
+      <c r="E29" s="16"/>
+      <c r="F29" s="16"/>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="E30" s="12"/>
-      <c r="F30" s="12"/>
+      <c r="E30" s="16"/>
+      <c r="F30" s="16"/>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="E31" s="12"/>
-      <c r="F31" s="12"/>
+      <c r="E31" s="16"/>
+      <c r="F31" s="16"/>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="E32" s="12"/>
-      <c r="F32" s="12"/>
+      <c r="E32" s="16"/>
+      <c r="F32" s="16"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -1895,8 +1913,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:T11"/>
   <sheetViews>
-    <sheetView tabSelected="1" showRuler="0" topLeftCell="H1" zoomScale="99" workbookViewId="0">
-      <selection activeCell="M7" sqref="M7:S8"/>
+    <sheetView tabSelected="1" showRuler="0" topLeftCell="A10" zoomScale="99" workbookViewId="0">
+      <selection activeCell="D10" sqref="D10:L11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="44" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1908,321 +1926,309 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:20" ht="267" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="13" t="s">
+      <c r="A1" s="40" t="s">
+        <v>54</v>
+      </c>
+      <c r="B1" s="41"/>
+      <c r="C1" s="41"/>
+      <c r="D1" s="41"/>
+      <c r="E1" s="41"/>
+      <c r="F1" s="41"/>
+      <c r="G1" s="41"/>
+      <c r="H1" s="41"/>
+      <c r="I1" s="41"/>
+      <c r="J1" s="41"/>
+      <c r="K1" s="41"/>
+      <c r="L1" s="41"/>
+      <c r="M1" s="41"/>
+      <c r="N1" s="41"/>
+      <c r="O1" s="41"/>
+      <c r="P1" s="41"/>
+      <c r="Q1" s="41"/>
+      <c r="R1" s="41"/>
+      <c r="S1" s="41"/>
+      <c r="T1" s="8" t="s">
         <v>55</v>
       </c>
-      <c r="B1" s="14"/>
-      <c r="C1" s="14"/>
-      <c r="D1" s="14"/>
-      <c r="E1" s="14"/>
-      <c r="F1" s="14"/>
-      <c r="G1" s="14"/>
-      <c r="H1" s="14"/>
-      <c r="I1" s="14"/>
-      <c r="J1" s="14"/>
-      <c r="K1" s="14"/>
-      <c r="L1" s="14"/>
-      <c r="M1" s="14"/>
-      <c r="N1" s="14"/>
-      <c r="O1" s="14"/>
-      <c r="P1" s="14"/>
-      <c r="Q1" s="14"/>
-      <c r="R1" s="14"/>
-      <c r="S1" s="14"/>
-      <c r="T1" s="8" t="s">
-        <v>56</v>
-      </c>
     </row>
     <row r="2" spans="1:20" ht="29" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="18" t="s">
+      <c r="A2" s="43" t="s">
         <v>33</v>
       </c>
-      <c r="B2" s="18"/>
-      <c r="C2" s="18"/>
-      <c r="D2" s="18" t="s">
+      <c r="B2" s="43"/>
+      <c r="C2" s="43"/>
+      <c r="D2" s="43" t="s">
         <v>34</v>
       </c>
-      <c r="E2" s="18"/>
-      <c r="F2" s="18"/>
-      <c r="G2" s="18"/>
-      <c r="H2" s="18"/>
-      <c r="I2" s="18"/>
-      <c r="J2" s="18"/>
-      <c r="K2" s="18"/>
-      <c r="L2" s="18"/>
-      <c r="M2" s="18" t="s">
+      <c r="E2" s="43"/>
+      <c r="F2" s="43"/>
+      <c r="G2" s="43"/>
+      <c r="H2" s="43"/>
+      <c r="I2" s="43"/>
+      <c r="J2" s="43"/>
+      <c r="K2" s="43"/>
+      <c r="L2" s="43"/>
+      <c r="M2" s="43" t="s">
         <v>1</v>
       </c>
-      <c r="N2" s="18"/>
-      <c r="O2" s="18"/>
-      <c r="P2" s="18"/>
-      <c r="Q2" s="18"/>
-      <c r="R2" s="18"/>
-      <c r="S2" s="18"/>
+      <c r="N2" s="43"/>
+      <c r="O2" s="43"/>
+      <c r="P2" s="43"/>
+      <c r="Q2" s="43"/>
+      <c r="R2" s="43"/>
+      <c r="S2" s="43"/>
       <c r="T2" s="7" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="3" spans="1:20" ht="315" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="15" t="s">
+      <c r="A3" s="42" t="s">
         <v>31</v>
       </c>
-      <c r="B3" s="15"/>
-      <c r="C3" s="15"/>
-      <c r="D3" s="17" t="s">
+      <c r="B3" s="42"/>
+      <c r="C3" s="42"/>
+      <c r="D3" s="22" t="s">
         <v>32</v>
       </c>
-      <c r="E3" s="16"/>
-      <c r="F3" s="16"/>
-      <c r="G3" s="16"/>
-      <c r="H3" s="16"/>
-      <c r="I3" s="16"/>
-      <c r="J3" s="16"/>
-      <c r="K3" s="16"/>
-      <c r="L3" s="16"/>
-      <c r="M3" s="17" t="s">
+      <c r="E3" s="19"/>
+      <c r="F3" s="19"/>
+      <c r="G3" s="19"/>
+      <c r="H3" s="19"/>
+      <c r="I3" s="19"/>
+      <c r="J3" s="19"/>
+      <c r="K3" s="19"/>
+      <c r="L3" s="19"/>
+      <c r="M3" s="22" t="s">
         <v>35</v>
       </c>
-      <c r="N3" s="16"/>
-      <c r="O3" s="16"/>
-      <c r="P3" s="16"/>
-      <c r="Q3" s="16"/>
-      <c r="R3" s="16"/>
-      <c r="S3" s="16"/>
-      <c r="T3" s="34" t="s">
+      <c r="N3" s="19"/>
+      <c r="O3" s="19"/>
+      <c r="P3" s="19"/>
+      <c r="Q3" s="19"/>
+      <c r="R3" s="19"/>
+      <c r="S3" s="19"/>
+      <c r="T3" s="9" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="4" spans="1:20" ht="250" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="19" t="s">
+      <c r="A4" s="37" t="s">
         <v>36</v>
       </c>
-      <c r="B4" s="19"/>
-      <c r="C4" s="19"/>
-      <c r="D4" s="20" t="s">
+      <c r="B4" s="37"/>
+      <c r="C4" s="37"/>
+      <c r="D4" s="23" t="s">
         <v>37</v>
       </c>
-      <c r="E4" s="21"/>
-      <c r="F4" s="21"/>
-      <c r="G4" s="21"/>
-      <c r="H4" s="21"/>
-      <c r="I4" s="21"/>
-      <c r="J4" s="21"/>
-      <c r="K4" s="21"/>
-      <c r="L4" s="21"/>
-      <c r="M4" s="20" t="s">
+      <c r="E4" s="24"/>
+      <c r="F4" s="24"/>
+      <c r="G4" s="24"/>
+      <c r="H4" s="24"/>
+      <c r="I4" s="24"/>
+      <c r="J4" s="24"/>
+      <c r="K4" s="24"/>
+      <c r="L4" s="24"/>
+      <c r="M4" s="23" t="s">
         <v>38</v>
       </c>
-      <c r="N4" s="21"/>
-      <c r="O4" s="21"/>
-      <c r="P4" s="21"/>
-      <c r="Q4" s="21"/>
-      <c r="R4" s="21"/>
-      <c r="S4" s="21"/>
-      <c r="T4" s="37"/>
+      <c r="N4" s="24"/>
+      <c r="O4" s="24"/>
+      <c r="P4" s="24"/>
+      <c r="Q4" s="24"/>
+      <c r="R4" s="24"/>
+      <c r="S4" s="24"/>
+      <c r="T4" s="10"/>
     </row>
     <row r="5" spans="1:20" ht="160" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="15" t="s">
+      <c r="A5" s="42" t="s">
         <v>39</v>
       </c>
-      <c r="B5" s="15"/>
-      <c r="C5" s="15"/>
-      <c r="D5" s="16" t="s">
+      <c r="B5" s="42"/>
+      <c r="C5" s="42"/>
+      <c r="D5" s="19" t="s">
         <v>40</v>
       </c>
-      <c r="E5" s="16"/>
-      <c r="F5" s="16"/>
-      <c r="G5" s="16"/>
-      <c r="H5" s="16"/>
-      <c r="I5" s="16"/>
-      <c r="J5" s="16"/>
-      <c r="K5" s="16"/>
-      <c r="L5" s="16"/>
-      <c r="M5" s="17" t="s">
+      <c r="E5" s="19"/>
+      <c r="F5" s="19"/>
+      <c r="G5" s="19"/>
+      <c r="H5" s="19"/>
+      <c r="I5" s="19"/>
+      <c r="J5" s="19"/>
+      <c r="K5" s="19"/>
+      <c r="L5" s="19"/>
+      <c r="M5" s="22" t="s">
         <v>41</v>
       </c>
-      <c r="N5" s="16"/>
-      <c r="O5" s="16"/>
-      <c r="P5" s="16"/>
-      <c r="Q5" s="16"/>
-      <c r="R5" s="16"/>
-      <c r="S5" s="16"/>
-      <c r="T5" s="38"/>
+      <c r="N5" s="19"/>
+      <c r="O5" s="19"/>
+      <c r="P5" s="19"/>
+      <c r="Q5" s="19"/>
+      <c r="R5" s="19"/>
+      <c r="S5" s="19"/>
+      <c r="T5" s="11"/>
     </row>
     <row r="6" spans="1:20" ht="242" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="19" t="s">
+      <c r="A6" s="37" t="s">
         <v>42</v>
       </c>
-      <c r="B6" s="19"/>
-      <c r="C6" s="19"/>
-      <c r="D6" s="20" t="s">
+      <c r="B6" s="37"/>
+      <c r="C6" s="37"/>
+      <c r="D6" s="23" t="s">
         <v>43</v>
       </c>
-      <c r="E6" s="21"/>
-      <c r="F6" s="21"/>
-      <c r="G6" s="21"/>
-      <c r="H6" s="21"/>
-      <c r="I6" s="21"/>
-      <c r="J6" s="21"/>
-      <c r="K6" s="21"/>
-      <c r="L6" s="21"/>
-      <c r="M6" s="20" t="s">
+      <c r="E6" s="24"/>
+      <c r="F6" s="24"/>
+      <c r="G6" s="24"/>
+      <c r="H6" s="24"/>
+      <c r="I6" s="24"/>
+      <c r="J6" s="24"/>
+      <c r="K6" s="24"/>
+      <c r="L6" s="24"/>
+      <c r="M6" s="23" t="s">
         <v>44</v>
       </c>
-      <c r="N6" s="21"/>
-      <c r="O6" s="21"/>
-      <c r="P6" s="21"/>
-      <c r="Q6" s="21"/>
-      <c r="R6" s="21"/>
-      <c r="S6" s="21"/>
-      <c r="T6" s="39"/>
+      <c r="N6" s="24"/>
+      <c r="O6" s="24"/>
+      <c r="P6" s="24"/>
+      <c r="Q6" s="24"/>
+      <c r="R6" s="24"/>
+      <c r="S6" s="24"/>
+      <c r="T6" s="12"/>
     </row>
     <row r="7" spans="1:20" ht="242" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="22" t="s">
+      <c r="A7" s="25" t="s">
         <v>45</v>
       </c>
-      <c r="B7" s="23"/>
-      <c r="C7" s="24"/>
-      <c r="D7" s="28" t="s">
+      <c r="B7" s="26"/>
+      <c r="C7" s="27"/>
+      <c r="D7" s="31" t="s">
         <v>46</v>
       </c>
-      <c r="E7" s="29"/>
-      <c r="F7" s="29"/>
-      <c r="G7" s="29"/>
-      <c r="H7" s="29"/>
-      <c r="I7" s="29"/>
-      <c r="J7" s="29"/>
-      <c r="K7" s="29"/>
-      <c r="L7" s="30"/>
-      <c r="M7" s="28" t="s">
+      <c r="E7" s="32"/>
+      <c r="F7" s="32"/>
+      <c r="G7" s="32"/>
+      <c r="H7" s="32"/>
+      <c r="I7" s="32"/>
+      <c r="J7" s="32"/>
+      <c r="K7" s="32"/>
+      <c r="L7" s="33"/>
+      <c r="M7" s="31" t="s">
         <v>53</v>
       </c>
-      <c r="N7" s="29"/>
-      <c r="O7" s="29"/>
-      <c r="P7" s="29"/>
-      <c r="Q7" s="29"/>
-      <c r="R7" s="29"/>
-      <c r="S7" s="30"/>
-      <c r="T7" s="35" t="s">
+      <c r="N7" s="32"/>
+      <c r="O7" s="32"/>
+      <c r="P7" s="32"/>
+      <c r="Q7" s="32"/>
+      <c r="R7" s="32"/>
+      <c r="S7" s="33"/>
+      <c r="T7" s="38" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20" ht="409" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="28"/>
+      <c r="B8" s="29"/>
+      <c r="C8" s="30"/>
+      <c r="D8" s="34"/>
+      <c r="E8" s="35"/>
+      <c r="F8" s="35"/>
+      <c r="G8" s="35"/>
+      <c r="H8" s="35"/>
+      <c r="I8" s="35"/>
+      <c r="J8" s="35"/>
+      <c r="K8" s="35"/>
+      <c r="L8" s="36"/>
+      <c r="M8" s="34"/>
+      <c r="N8" s="35"/>
+      <c r="O8" s="35"/>
+      <c r="P8" s="35"/>
+      <c r="Q8" s="35"/>
+      <c r="R8" s="35"/>
+      <c r="S8" s="36"/>
+      <c r="T8" s="39"/>
+    </row>
+    <row r="9" spans="1:20" ht="409" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="37" t="s">
+        <v>47</v>
+      </c>
+      <c r="B9" s="37"/>
+      <c r="C9" s="37"/>
+      <c r="D9" s="23" t="s">
         <v>59</v>
       </c>
-    </row>
-    <row r="8" spans="1:20" ht="409" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="25"/>
-      <c r="B8" s="26"/>
-      <c r="C8" s="27"/>
-      <c r="D8" s="31"/>
-      <c r="E8" s="32"/>
-      <c r="F8" s="32"/>
-      <c r="G8" s="32"/>
-      <c r="H8" s="32"/>
-      <c r="I8" s="32"/>
-      <c r="J8" s="32"/>
-      <c r="K8" s="32"/>
-      <c r="L8" s="33"/>
-      <c r="M8" s="31"/>
-      <c r="N8" s="32"/>
-      <c r="O8" s="32"/>
-      <c r="P8" s="32"/>
-      <c r="Q8" s="32"/>
-      <c r="R8" s="32"/>
-      <c r="S8" s="33"/>
-      <c r="T8" s="36"/>
-    </row>
-    <row r="9" spans="1:20" ht="409" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="19" t="s">
-        <v>47</v>
-      </c>
-      <c r="B9" s="19"/>
-      <c r="C9" s="19"/>
-      <c r="D9" s="20" t="s">
-        <v>54</v>
-      </c>
-      <c r="E9" s="21"/>
-      <c r="F9" s="21"/>
-      <c r="G9" s="21"/>
-      <c r="H9" s="21"/>
-      <c r="I9" s="21"/>
-      <c r="J9" s="21"/>
-      <c r="K9" s="21"/>
-      <c r="L9" s="21"/>
-      <c r="M9" s="20" t="s">
+      <c r="E9" s="24"/>
+      <c r="F9" s="24"/>
+      <c r="G9" s="24"/>
+      <c r="H9" s="24"/>
+      <c r="I9" s="24"/>
+      <c r="J9" s="24"/>
+      <c r="K9" s="24"/>
+      <c r="L9" s="24"/>
+      <c r="M9" s="23" t="s">
         <v>48</v>
       </c>
-      <c r="N9" s="21"/>
-      <c r="O9" s="21"/>
-      <c r="P9" s="21"/>
-      <c r="Q9" s="21"/>
-      <c r="R9" s="21"/>
-      <c r="S9" s="21"/>
-      <c r="T9" s="39"/>
+      <c r="N9" s="24"/>
+      <c r="O9" s="24"/>
+      <c r="P9" s="24"/>
+      <c r="Q9" s="24"/>
+      <c r="R9" s="24"/>
+      <c r="S9" s="24"/>
+      <c r="T9" s="12"/>
     </row>
     <row r="10" spans="1:20" ht="282" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="40" t="s">
+      <c r="A10" s="20" t="s">
         <v>49</v>
       </c>
-      <c r="B10" s="40"/>
-      <c r="C10" s="40"/>
-      <c r="D10" s="16" t="s">
+      <c r="B10" s="20"/>
+      <c r="C10" s="20"/>
+      <c r="D10" s="19" t="s">
         <v>50</v>
       </c>
-      <c r="E10" s="16"/>
-      <c r="F10" s="16"/>
-      <c r="G10" s="16"/>
-      <c r="H10" s="16"/>
-      <c r="I10" s="16"/>
-      <c r="J10" s="16"/>
-      <c r="K10" s="16"/>
-      <c r="L10" s="16"/>
-      <c r="M10" s="17" t="s">
+      <c r="E10" s="19"/>
+      <c r="F10" s="19"/>
+      <c r="G10" s="19"/>
+      <c r="H10" s="19"/>
+      <c r="I10" s="19"/>
+      <c r="J10" s="19"/>
+      <c r="K10" s="19"/>
+      <c r="L10" s="19"/>
+      <c r="M10" s="22" t="s">
+        <v>56</v>
+      </c>
+      <c r="N10" s="22"/>
+      <c r="O10" s="22"/>
+      <c r="P10" s="22"/>
+      <c r="Q10" s="22"/>
+      <c r="R10" s="22"/>
+      <c r="S10" s="22"/>
+      <c r="T10" s="17" t="s">
         <v>57</v>
       </c>
-      <c r="N10" s="17"/>
-      <c r="O10" s="17"/>
-      <c r="P10" s="17"/>
-      <c r="Q10" s="17"/>
-      <c r="R10" s="17"/>
-      <c r="S10" s="17"/>
-      <c r="T10" s="42" t="s">
-        <v>58</v>
-      </c>
     </row>
     <row r="11" spans="1:20" ht="172" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="41"/>
-      <c r="B11" s="41"/>
-      <c r="C11" s="41"/>
-      <c r="D11" s="16"/>
-      <c r="E11" s="16"/>
-      <c r="F11" s="16"/>
-      <c r="G11" s="16"/>
-      <c r="H11" s="16"/>
-      <c r="I11" s="16"/>
-      <c r="J11" s="16"/>
-      <c r="K11" s="16"/>
-      <c r="L11" s="16"/>
-      <c r="M11" s="17"/>
-      <c r="N11" s="17"/>
-      <c r="O11" s="17"/>
-      <c r="P11" s="17"/>
-      <c r="Q11" s="17"/>
-      <c r="R11" s="17"/>
-      <c r="S11" s="17"/>
-      <c r="T11" s="43"/>
+      <c r="A11" s="21"/>
+      <c r="B11" s="21"/>
+      <c r="C11" s="21"/>
+      <c r="D11" s="19"/>
+      <c r="E11" s="19"/>
+      <c r="F11" s="19"/>
+      <c r="G11" s="19"/>
+      <c r="H11" s="19"/>
+      <c r="I11" s="19"/>
+      <c r="J11" s="19"/>
+      <c r="K11" s="19"/>
+      <c r="L11" s="19"/>
+      <c r="M11" s="22"/>
+      <c r="N11" s="22"/>
+      <c r="O11" s="22"/>
+      <c r="P11" s="22"/>
+      <c r="Q11" s="22"/>
+      <c r="R11" s="22"/>
+      <c r="S11" s="22"/>
+      <c r="T11" s="18"/>
     </row>
   </sheetData>
   <mergeCells count="27">
-    <mergeCell ref="T10:T11"/>
-    <mergeCell ref="D10:L11"/>
-    <mergeCell ref="A10:C11"/>
-    <mergeCell ref="M10:S11"/>
-    <mergeCell ref="M6:S6"/>
-    <mergeCell ref="A7:C8"/>
-    <mergeCell ref="D7:L8"/>
-    <mergeCell ref="M7:S8"/>
-    <mergeCell ref="A9:C9"/>
-    <mergeCell ref="D9:L9"/>
-    <mergeCell ref="M9:S9"/>
-    <mergeCell ref="T7:T8"/>
     <mergeCell ref="A1:S1"/>
     <mergeCell ref="A5:C5"/>
     <mergeCell ref="D5:L5"/>
@@ -2236,6 +2242,18 @@
     <mergeCell ref="A4:C4"/>
     <mergeCell ref="D4:L4"/>
     <mergeCell ref="M4:S4"/>
+    <mergeCell ref="T10:T11"/>
+    <mergeCell ref="D10:L11"/>
+    <mergeCell ref="A10:C11"/>
+    <mergeCell ref="M10:S11"/>
+    <mergeCell ref="M6:S6"/>
+    <mergeCell ref="A7:C8"/>
+    <mergeCell ref="D7:L8"/>
+    <mergeCell ref="M7:S8"/>
+    <mergeCell ref="A9:C9"/>
+    <mergeCell ref="D9:L9"/>
+    <mergeCell ref="M9:S9"/>
+    <mergeCell ref="T7:T8"/>
     <mergeCell ref="A6:C6"/>
     <mergeCell ref="D6:L6"/>
   </mergeCells>
